--- a/Arabic transliteration release.xlsx
+++ b/Arabic transliteration release.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Transliterations" sheetId="1" r:id="rId1"/>
@@ -17700,8 +17700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1133"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A834" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C858" sqref="C858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -32254,7 +32254,7 @@
         <v>5067</v>
       </c>
       <c r="C856" s="12" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="D856" s="4">
         <v>896</v>
@@ -32271,7 +32271,7 @@
         <v>1846</v>
       </c>
       <c r="C857" s="13" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D857" s="6">
         <v>897</v>
@@ -56214,8 +56214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
-      <selection activeCell="H617" sqref="H617"/>
+    <sheetView topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="B462" sqref="B462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
